--- a/cost_calculation.xlsx
+++ b/cost_calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/218b2c192ba6994a/Keyboards/Blavinge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_AD4DB114E441178AC67DF4622E53C6BC693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA810FB-62AC-4BAE-BAFB-418CA50AF524}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="11_AD4DB114E441178AC67DF4622E53C6BC693EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{668CC0BD-48C5-4807-8FFB-7E9F837CE875}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Blåvinge</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>USB-C Cabel</t>
+  </si>
+  <si>
+    <t>Reset-Button</t>
   </si>
 </sst>
 </file>
@@ -266,10 +269,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -280,7 +283,77 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -317,88 +390,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -407,6 +398,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -414,18 +414,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -441,18 +444,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{218D6B13-BB65-4CC3-AE94-FA6B1BDBE3C6}" name="Tabelle1" displayName="Tabelle1" ref="A3:F30" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{218D6B13-BB65-4CC3-AE94-FA6B1BDBE3C6}" name="Tabelle1" displayName="Tabelle1" ref="A3:F30" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A3:F30" xr:uid="{218D6B13-BB65-4CC3-AE94-FA6B1BDBE3C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7F77CADE-AD2D-4696-B055-F890537DDDF4}" name="Piecenumber" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DBB56B65-E18B-4DFD-B50C-DC111F207847}" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{69D1BAC9-6E83-45C4-BDFA-9805E1D3EB54}" name="Amount" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{97BAAC5A-C95F-4FA3-9649-A78BF2EE93DD}" name="Cost/Piece" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C7B2F3A8-2826-4848-8433-D4C7076A5A4C}" name="Cost" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{7F77CADE-AD2D-4696-B055-F890537DDDF4}" name="Piecenumber" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DBB56B65-E18B-4DFD-B50C-DC111F207847}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{69D1BAC9-6E83-45C4-BDFA-9805E1D3EB54}" name="Amount" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{97BAAC5A-C95F-4FA3-9649-A78BF2EE93DD}" name="Cost/Piece" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C7B2F3A8-2826-4848-8433-D4C7076A5A4C}" name="Cost" dataDxfId="1">
       <calculatedColumnFormula>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{BC992633-EE0D-42BB-A02C-C2E167623CB2}" name="Link" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{BC992633-EE0D-42BB-A02C-C2E167623CB2}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,7 +731,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,11 +780,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="12">
-        <v>8.6</v>
+        <v>10.337999999999999</v>
       </c>
       <c r="E4" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>8.6</v>
+        <v>10.337999999999999</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -792,11 +799,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="12">
-        <v>6.3</v>
+        <v>4.97</v>
       </c>
       <c r="E5" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>6.3</v>
+        <v>4.97</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -813,11 +820,11 @@
         <v>36</v>
       </c>
       <c r="D6" s="12">
-        <v>0.02</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E6" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>0.72</v>
+        <v>5.2919999999999998</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -834,11 +841,11 @@
         <v>36</v>
       </c>
       <c r="D7" s="12">
-        <v>0.01</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="E7" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>0.36</v>
+        <v>0.6048</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -852,14 +859,14 @@
         <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <v>0.1</v>
       </c>
       <c r="E8" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
@@ -873,14 +880,14 @@
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <v>32.619999999999997</v>
       </c>
       <c r="E9" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>32.619999999999997</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -892,25 +899,33 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
       </c>
       <c r="E10" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.78E-2</v>
+      </c>
       <c r="E11" s="12">
         <f>PRODUCT(Tabelle1[[#This Row],[Amount]],Tabelle1[[#This Row],[Cost/Piece]])</f>
-        <v>0</v>
+        <v>3.78E-2</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1121,7 +1136,7 @@
       </c>
       <c r="E30" s="11">
         <f>SUM(E4:E29)</f>
-        <v>57.199999999999996</v>
+        <v>21.242600000000003</v>
       </c>
       <c r="F30" s="5"/>
     </row>
